--- a/config_12.22/activity_year_config.xlsx
+++ b/config_12.22/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -464,14 +464,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>冬至换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>冬至福袋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -501,6 +493,14 @@
   </si>
   <si>
     <t>兑换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞福利</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -512,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,8 +562,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +715,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,10 +1000,10 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="18">
         <v>0</v>
@@ -2161,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -2214,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D22" s="25">
         <v>0</v>
@@ -2223,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>23</v>
@@ -2245,22 +2261,22 @@
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="25" t="s">
         <v>49</v>
       </c>
       <c r="R22" s="27">
-        <v>44180.333333333336</v>
-      </c>
-      <c r="S22" s="26">
-        <v>1607990400</v>
+        <v>44187.333333333336</v>
+      </c>
+      <c r="S22" s="29">
+        <v>1608595200</v>
       </c>
       <c r="T22" s="27">
-        <v>44190.999988425923</v>
-      </c>
-      <c r="U22" s="28">
-        <v>1608566399</v>
+        <v>44193.999988425923</v>
+      </c>
+      <c r="U22" s="29">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2271,7 +2287,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -2280,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>23</v>
@@ -2302,22 +2318,22 @@
       </c>
       <c r="O23" s="25"/>
       <c r="P23" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="25" t="s">
         <v>49</v>
       </c>
       <c r="R23" s="27">
-        <v>44180.333333333336</v>
-      </c>
-      <c r="S23" s="26">
-        <v>1607990400</v>
+        <v>44187.333333333336</v>
+      </c>
+      <c r="S23" s="29">
+        <v>1608595200</v>
       </c>
       <c r="T23" s="27">
-        <v>44190.999988425923</v>
-      </c>
-      <c r="U23" s="28">
-        <v>1608566399</v>
+        <v>44193.999988425923</v>
+      </c>
+      <c r="U23" s="29">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2328,7 +2344,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
@@ -2359,10 +2375,10 @@
       </c>
       <c r="O24" s="25"/>
       <c r="P24" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R24" s="27">
         <v>44180.333333333336</v>
